--- a/natmiOut/OldD4/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.261087859494159</v>
+        <v>19.415008</v>
       </c>
       <c r="H2">
-        <v>9.261087859494159</v>
+        <v>58.245024</v>
       </c>
       <c r="I2">
-        <v>0.06128529670170006</v>
+        <v>0.1084529650088565</v>
       </c>
       <c r="J2">
-        <v>0.06128529670170006</v>
+        <v>0.1166494513416496</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>31.10894114879025</v>
+        <v>76.62472022673066</v>
       </c>
       <c r="R2">
-        <v>31.10894114879025</v>
+        <v>689.622482040576</v>
       </c>
       <c r="S2">
-        <v>0.0004374263796068607</v>
+        <v>0.0008765480814176142</v>
       </c>
       <c r="T2">
-        <v>0.0004374263796068607</v>
+        <v>0.0009702532199262783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.261087859494159</v>
+        <v>19.415008</v>
       </c>
       <c r="H3">
-        <v>9.261087859494159</v>
+        <v>58.245024</v>
       </c>
       <c r="I3">
-        <v>0.06128529670170006</v>
+        <v>0.1084529650088565</v>
       </c>
       <c r="J3">
-        <v>0.06128529670170006</v>
+        <v>0.1166494513416496</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>1620.984670878466</v>
+        <v>3607.361767653621</v>
       </c>
       <c r="R3">
-        <v>1620.984670878466</v>
+        <v>32466.25590888259</v>
       </c>
       <c r="S3">
-        <v>0.0227928508588329</v>
+        <v>0.04126639584535744</v>
       </c>
       <c r="T3">
-        <v>0.0227928508588329</v>
+        <v>0.04567787471390827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.261087859494159</v>
+        <v>19.415008</v>
       </c>
       <c r="H4">
-        <v>9.261087859494159</v>
+        <v>58.245024</v>
       </c>
       <c r="I4">
-        <v>0.06128529670170006</v>
+        <v>0.1084529650088565</v>
       </c>
       <c r="J4">
-        <v>0.06128529670170006</v>
+        <v>0.1166494513416496</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>1070.306798524154</v>
+        <v>2278.145862147062</v>
       </c>
       <c r="R4">
-        <v>1070.306798524154</v>
+        <v>20503.31275932355</v>
       </c>
       <c r="S4">
-        <v>0.0150497063113714</v>
+        <v>0.02606083753057358</v>
       </c>
       <c r="T4">
-        <v>0.0150497063113714</v>
+        <v>0.02884680494322796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.261087859494159</v>
+        <v>19.415008</v>
       </c>
       <c r="H5">
-        <v>9.261087859494159</v>
+        <v>58.245024</v>
       </c>
       <c r="I5">
-        <v>0.06128529670170006</v>
+        <v>0.1084529650088565</v>
       </c>
       <c r="J5">
-        <v>0.06128529670170006</v>
+        <v>0.1166494513416496</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>1256.297172594023</v>
+        <v>2713.522135664885</v>
       </c>
       <c r="R5">
-        <v>1256.297172594023</v>
+        <v>24421.69922098397</v>
       </c>
       <c r="S5">
-        <v>0.01766493823398772</v>
+        <v>0.03104132210679872</v>
       </c>
       <c r="T5">
-        <v>0.01766493823398772</v>
+        <v>0.03435971552887482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.261087859494159</v>
+        <v>19.415008</v>
       </c>
       <c r="H6">
-        <v>9.261087859494159</v>
+        <v>58.245024</v>
       </c>
       <c r="I6">
-        <v>0.06128529670170006</v>
+        <v>0.1084529650088565</v>
       </c>
       <c r="J6">
-        <v>0.06128529670170006</v>
+        <v>0.1166494513416496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>379.7974168425244</v>
+        <v>804.918545878592</v>
       </c>
       <c r="R6">
-        <v>379.7974168425244</v>
+        <v>4829.511275271552</v>
       </c>
       <c r="S6">
-        <v>0.005340374917901173</v>
+        <v>0.009207861444709111</v>
       </c>
       <c r="T6">
-        <v>0.005340374917901173</v>
+        <v>0.006794802935712272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.4171597617924</v>
+        <v>108.735906</v>
       </c>
       <c r="H7">
-        <v>97.4171597617924</v>
+        <v>326.207718</v>
       </c>
       <c r="I7">
-        <v>0.64465855744127</v>
+        <v>0.6074028611589708</v>
       </c>
       <c r="J7">
-        <v>0.64465855744127</v>
+        <v>0.6533081920974323</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>327.2342014124274</v>
+        <v>429.145245567248</v>
       </c>
       <c r="R7">
-        <v>327.2342014124274</v>
+        <v>3862.307210105232</v>
       </c>
       <c r="S7">
-        <v>0.00460127753377253</v>
+        <v>0.004909204764968732</v>
       </c>
       <c r="T7">
-        <v>0.00460127753377253</v>
+        <v>0.005434010787845214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.4171597617924</v>
+        <v>108.735906</v>
       </c>
       <c r="H8">
-        <v>97.4171597617924</v>
+        <v>326.207718</v>
       </c>
       <c r="I8">
-        <v>0.64465855744127</v>
+        <v>0.6074028611589708</v>
       </c>
       <c r="J8">
-        <v>0.64465855744127</v>
+        <v>0.6533081920974323</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>17051.09864523077</v>
+        <v>20203.42974237137</v>
       </c>
       <c r="R8">
-        <v>17051.09864523077</v>
+        <v>181830.8676813423</v>
       </c>
       <c r="S8">
-        <v>0.2397574482856608</v>
+        <v>0.2311170275901806</v>
       </c>
       <c r="T8">
-        <v>0.2397574482856608</v>
+        <v>0.255824004356388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.4171597617924</v>
+        <v>108.735906</v>
       </c>
       <c r="H9">
-        <v>97.4171597617924</v>
+        <v>326.207718</v>
       </c>
       <c r="I9">
-        <v>0.64465855744127</v>
+        <v>0.6074028611589708</v>
       </c>
       <c r="J9">
-        <v>0.64465855744127</v>
+        <v>0.6533081920974323</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>11258.53139154379</v>
+        <v>12759.00861440345</v>
       </c>
       <c r="R9">
-        <v>11258.53139154379</v>
+        <v>114831.077529631</v>
       </c>
       <c r="S9">
-        <v>0.1583074976013673</v>
+        <v>0.1459566115041375</v>
       </c>
       <c r="T9">
-        <v>0.1583074976013673</v>
+        <v>0.1615597310445183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.4171597617924</v>
+        <v>108.735906</v>
       </c>
       <c r="H10">
-        <v>97.4171597617924</v>
+        <v>326.207718</v>
       </c>
       <c r="I10">
-        <v>0.64465855744127</v>
+        <v>0.6074028611589708</v>
       </c>
       <c r="J10">
-        <v>0.64465855744127</v>
+        <v>0.6533081920974323</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>13214.95964919662</v>
+        <v>15197.38173028701</v>
       </c>
       <c r="R10">
-        <v>13214.95964919662</v>
+        <v>136776.4355725831</v>
       </c>
       <c r="S10">
-        <v>0.185817059100503</v>
+        <v>0.1738503678556603</v>
       </c>
       <c r="T10">
-        <v>0.185817059100503</v>
+        <v>0.1924353983235275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.4171597617924</v>
+        <v>108.735906</v>
       </c>
       <c r="H11">
-        <v>97.4171597617924</v>
+        <v>326.207718</v>
       </c>
       <c r="I11">
-        <v>0.64465855744127</v>
+        <v>0.6074028611589708</v>
       </c>
       <c r="J11">
-        <v>0.64465855744127</v>
+        <v>0.6533081920974323</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>3995.079864805984</v>
+        <v>4508.035605358044</v>
       </c>
       <c r="R11">
-        <v>3995.079864805984</v>
+        <v>27048.21363214826</v>
       </c>
       <c r="S11">
-        <v>0.0561752749199664</v>
+        <v>0.05156964944402362</v>
       </c>
       <c r="T11">
-        <v>0.0561752749199664</v>
+        <v>0.03805504758515339</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.59544035936241</v>
+        <v>7.098659666666666</v>
       </c>
       <c r="H12">
-        <v>5.59544035936241</v>
+        <v>21.295979</v>
       </c>
       <c r="I12">
-        <v>0.0370278554531414</v>
+        <v>0.0396533799233449</v>
       </c>
       <c r="J12">
-        <v>0.0370278554531414</v>
+        <v>0.04265024023568591</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>18.79565635073012</v>
+        <v>28.01610027372178</v>
       </c>
       <c r="R12">
-        <v>18.79565635073012</v>
+        <v>252.144902463496</v>
       </c>
       <c r="S12">
-        <v>0.0002642878737180772</v>
+        <v>0.0003204900307768746</v>
       </c>
       <c r="T12">
-        <v>0.0002642878737180772</v>
+        <v>0.0003547512006559119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.59544035936241</v>
+        <v>7.098659666666666</v>
       </c>
       <c r="H13">
-        <v>5.59544035936241</v>
+        <v>21.295979</v>
       </c>
       <c r="I13">
-        <v>0.0370278554531414</v>
+        <v>0.0396533799233449</v>
       </c>
       <c r="J13">
-        <v>0.0370278554531414</v>
+        <v>0.04265024023568591</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>979.3798727481864</v>
+        <v>1318.950447155012</v>
       </c>
       <c r="R13">
-        <v>979.3798727481864</v>
+        <v>11870.55402439511</v>
       </c>
       <c r="S13">
-        <v>0.01377117240818486</v>
+        <v>0.01508812665831195</v>
       </c>
       <c r="T13">
-        <v>0.01377117240818486</v>
+        <v>0.01670108438228168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.59544035936241</v>
+        <v>7.098659666666666</v>
       </c>
       <c r="H14">
-        <v>5.59544035936241</v>
+        <v>21.295979</v>
       </c>
       <c r="I14">
-        <v>0.0370278554531414</v>
+        <v>0.0396533799233449</v>
       </c>
       <c r="J14">
-        <v>0.0370278554531414</v>
+        <v>0.04265024023568591</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>646.6667791324822</v>
+        <v>832.9526388249186</v>
       </c>
       <c r="R14">
-        <v>646.6667791324822</v>
+        <v>7496.573749424268</v>
       </c>
       <c r="S14">
-        <v>0.009092855544488731</v>
+        <v>0.009528557302569003</v>
       </c>
       <c r="T14">
-        <v>0.009092855544488731</v>
+        <v>0.01054718343472704</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.59544035936241</v>
+        <v>7.098659666666666</v>
       </c>
       <c r="H15">
-        <v>5.59544035936241</v>
+        <v>21.295979</v>
       </c>
       <c r="I15">
-        <v>0.0370278554531414</v>
+        <v>0.0396533799233449</v>
       </c>
       <c r="J15">
-        <v>0.0370278554531414</v>
+        <v>0.04265024023568591</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>759.0399755984427</v>
+        <v>992.1381510144892</v>
       </c>
       <c r="R15">
-        <v>759.0399755984427</v>
+        <v>8929.243359130403</v>
       </c>
       <c r="S15">
-        <v>0.01067294791278417</v>
+        <v>0.01134955912660661</v>
       </c>
       <c r="T15">
-        <v>0.01067294791278417</v>
+        <v>0.01256285481741568</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.59544035936241</v>
+        <v>7.098659666666666</v>
       </c>
       <c r="H16">
-        <v>5.59544035936241</v>
+        <v>21.295979</v>
       </c>
       <c r="I16">
-        <v>0.0370278554531414</v>
+        <v>0.0396533799233449</v>
       </c>
       <c r="J16">
-        <v>0.0370278554531414</v>
+        <v>0.04265024023568591</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>229.4691322255013</v>
+        <v>294.3003070913153</v>
       </c>
       <c r="R16">
-        <v>229.4691322255013</v>
+        <v>1765.801842547892</v>
       </c>
       <c r="S16">
-        <v>0.003226591713965564</v>
+        <v>0.003366646805080462</v>
       </c>
       <c r="T16">
-        <v>0.003226591713965564</v>
+        <v>0.002484366400605602</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.14740797301989</v>
+        <v>6.031627333333334</v>
       </c>
       <c r="H17">
-        <v>5.14740797301989</v>
+        <v>18.094882</v>
       </c>
       <c r="I17">
-        <v>0.03406299882446541</v>
+        <v>0.03369289717153155</v>
       </c>
       <c r="J17">
-        <v>0.03406299882446541</v>
+        <v>0.03623928556355117</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>17.29066974970215</v>
+        <v>23.80487079524089</v>
       </c>
       <c r="R17">
-        <v>17.29066974970215</v>
+        <v>214.243837157168</v>
       </c>
       <c r="S17">
-        <v>0.000243126084986798</v>
+        <v>0.000272315693450107</v>
       </c>
       <c r="T17">
-        <v>0.000243126084986798</v>
+        <v>0.000301426908583402</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.14740797301989</v>
+        <v>6.031627333333334</v>
       </c>
       <c r="H18">
-        <v>5.14740797301989</v>
+        <v>18.094882</v>
       </c>
       <c r="I18">
-        <v>0.03406299882446541</v>
+        <v>0.03369289717153155</v>
       </c>
       <c r="J18">
-        <v>0.03406299882446541</v>
+        <v>0.03623928556355117</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>900.9599677287353</v>
+        <v>1120.692911329278</v>
       </c>
       <c r="R18">
-        <v>900.9599677287353</v>
+        <v>10086.23620196351</v>
       </c>
       <c r="S18">
-        <v>0.01266850115435769</v>
+        <v>0.0128201606267178</v>
       </c>
       <c r="T18">
-        <v>0.01266850115435769</v>
+        <v>0.0141906672226447</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.14740797301989</v>
+        <v>6.031627333333334</v>
       </c>
       <c r="H19">
-        <v>5.14740797301989</v>
+        <v>18.094882</v>
       </c>
       <c r="I19">
-        <v>0.03406299882446541</v>
+        <v>0.03369289717153155</v>
       </c>
       <c r="J19">
-        <v>0.03406299882446541</v>
+        <v>0.03623928556355117</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>594.8875371755237</v>
+        <v>707.7476790865319</v>
       </c>
       <c r="R19">
-        <v>594.8875371755237</v>
+        <v>6369.729111778787</v>
       </c>
       <c r="S19">
-        <v>0.008364781701033573</v>
+        <v>0.008096275828419272</v>
       </c>
       <c r="T19">
-        <v>0.008364781701033573</v>
+        <v>0.008961787560165253</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.14740797301989</v>
+        <v>6.031627333333334</v>
       </c>
       <c r="H20">
-        <v>5.14740797301989</v>
+        <v>18.094882</v>
       </c>
       <c r="I20">
-        <v>0.03406299882446541</v>
+        <v>0.03369289717153155</v>
       </c>
       <c r="J20">
-        <v>0.03406299882446541</v>
+        <v>0.03623928556355117</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>698.262901810547</v>
+        <v>843.0052814338972</v>
       </c>
       <c r="R20">
-        <v>698.262901810547</v>
+        <v>7587.047532905075</v>
       </c>
       <c r="S20">
-        <v>0.009818354526818928</v>
+        <v>0.009643554454480341</v>
       </c>
       <c r="T20">
-        <v>0.009818354526818928</v>
+        <v>0.01067447406406009</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.14740797301989</v>
+        <v>6.031627333333334</v>
       </c>
       <c r="H21">
-        <v>5.14740797301989</v>
+        <v>18.094882</v>
       </c>
       <c r="I21">
-        <v>0.03406299882446541</v>
+        <v>0.03369289717153155</v>
       </c>
       <c r="J21">
-        <v>0.03406299882446541</v>
+        <v>0.03623928556355117</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>211.095314205814</v>
+        <v>250.0626681394227</v>
       </c>
       <c r="R21">
-        <v>211.095314205814</v>
+        <v>1500.376008836536</v>
       </c>
       <c r="S21">
-        <v>0.002968235357268427</v>
+        <v>0.002860590568464027</v>
       </c>
       <c r="T21">
-        <v>0.002968235357268427</v>
+        <v>0.002110929808097721</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.6932554146791</v>
+        <v>37.7365695</v>
       </c>
       <c r="H22">
-        <v>33.6932554146791</v>
+        <v>75.473139</v>
       </c>
       <c r="I22">
-        <v>0.2229652915794231</v>
+        <v>0.2107978967372963</v>
       </c>
       <c r="J22">
-        <v>0.2229652915794231</v>
+        <v>0.1511528307616812</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>113.1790903734781</v>
+        <v>148.933962852556</v>
       </c>
       <c r="R22">
-        <v>113.1790903734781</v>
+        <v>893.603777115336</v>
       </c>
       <c r="S22">
-        <v>0.001591424134703905</v>
+        <v>0.001703729279663828</v>
       </c>
       <c r="T22">
-        <v>0.001591424134703905</v>
+        <v>0.001257241410574293</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.6932554146791</v>
+        <v>37.7365695</v>
       </c>
       <c r="H23">
-        <v>33.6932554146791</v>
+        <v>75.473139</v>
       </c>
       <c r="I23">
-        <v>0.2229652915794231</v>
+        <v>0.2107978967372963</v>
       </c>
       <c r="J23">
-        <v>0.2229652915794231</v>
+        <v>0.1511528307616812</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>5897.3903895315</v>
+        <v>7011.558174825564</v>
       </c>
       <c r="R23">
-        <v>5897.3903895315</v>
+        <v>42069.34904895339</v>
       </c>
       <c r="S23">
-        <v>0.08292388078664563</v>
+        <v>0.08020868262494883</v>
       </c>
       <c r="T23">
-        <v>0.08292388078664563</v>
+        <v>0.05918879160402414</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.6932554146791</v>
+        <v>37.7365695</v>
       </c>
       <c r="H24">
-        <v>33.6932554146791</v>
+        <v>75.473139</v>
       </c>
       <c r="I24">
-        <v>0.2229652915794231</v>
+        <v>0.2107978967372963</v>
       </c>
       <c r="J24">
-        <v>0.2229652915794231</v>
+        <v>0.1511528307616812</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>3893.939986518119</v>
+        <v>4427.987341444825</v>
       </c>
       <c r="R24">
-        <v>3893.939986518119</v>
+        <v>26567.92404866895</v>
       </c>
       <c r="S24">
-        <v>0.05475313552339425</v>
+        <v>0.05065393775272709</v>
       </c>
       <c r="T24">
-        <v>0.05475313552339425</v>
+        <v>0.03737931190802034</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.6932554146791</v>
+        <v>37.7365695</v>
       </c>
       <c r="H25">
-        <v>33.6932554146791</v>
+        <v>75.473139</v>
       </c>
       <c r="I25">
-        <v>0.2229652915794231</v>
+        <v>0.2107978967372963</v>
       </c>
       <c r="J25">
-        <v>0.2229652915794231</v>
+        <v>0.1511528307616812</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>4570.601440688806</v>
+        <v>5274.21964813542</v>
       </c>
       <c r="R25">
-        <v>4570.601440688806</v>
+        <v>31645.31788881253</v>
       </c>
       <c r="S25">
-        <v>0.06426774962426368</v>
+        <v>0.06033440774554904</v>
       </c>
       <c r="T25">
-        <v>0.06426774962426368</v>
+        <v>0.0445228692173125</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.6932554146791</v>
+        <v>37.7365695</v>
       </c>
       <c r="H26">
-        <v>33.6932554146791</v>
+        <v>75.473139</v>
       </c>
       <c r="I26">
-        <v>0.2229652915794231</v>
+        <v>0.2107978967372963</v>
       </c>
       <c r="J26">
-        <v>0.2229652915794231</v>
+        <v>0.1511528307616812</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>1381.761145737524</v>
+        <v>1564.504359121893</v>
       </c>
       <c r="R26">
-        <v>1381.761145737524</v>
+        <v>6258.017436487572</v>
       </c>
       <c r="S26">
-        <v>0.01942910151041567</v>
+        <v>0.01789713933440748</v>
       </c>
       <c r="T26">
-        <v>0.01942910151041567</v>
+        <v>0.008804616621749875</v>
       </c>
     </row>
   </sheetData>
